--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T12:02:40-03:00</t>
+    <t>2023-12-14T17:06:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T17:06:19-03:00</t>
+    <t>2023-12-15T10:15:00-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T10:15:00-03:00</t>
+    <t>2023-12-15T17:40:51-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T17:40:51-03:00</t>
+    <t>2023-12-18T10:08:36-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-18T10:08:36-03:00</t>
+    <t>2023-12-18T16:30:26-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-18T16:30:26-03:00</t>
+    <t>2023-12-19T10:25:02-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T10:25:02-03:00</t>
+    <t>2023-12-20T18:19:43-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T18:19:43-03:00</t>
+    <t>2023-12-21T12:24:32-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-21T12:24:32-03:00</t>
+    <t>2023-12-22T10:30:34-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T10:30:34-03:00</t>
+    <t>2023-12-22T16:42:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T16:42:14-03:00</t>
+    <t>2024-01-04T13:08:16-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-04T13:08:16-03:00</t>
+    <t>2024-01-04T15:48:10-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-04T15:48:10-03:00</t>
+    <t>2024-01-08T09:39:44-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T09:39:44-03:00</t>
+    <t>2024-01-18T12:40:46-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-18T12:40:46-03:00</t>
+    <t>2024-01-18T17:12:33-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-18T17:12:33-03:00</t>
+    <t>2024-01-19T17:28:51-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T17:28:51-03:00</t>
+    <t>2024-01-19T18:12:35-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T18:12:35-03:00</t>
+    <t>2024-01-21T18:35:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-21T18:35:12-03:00</t>
+    <t>2024-02-07T09:19:37-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T09:19:37-03:00</t>
+    <t>2024-02-07T18:11:02-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T18:11:02-03:00</t>
+    <t>2024-02-08T18:05:18-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-08T18:05:18-03:00</t>
+    <t>2024-02-09T16:41:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$118</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3776" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="724">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T16:41:20-03:00</t>
+    <t>2024-02-16T16:56:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -844,6 +847,147 @@
   </si>
   <si>
     <t>Observation.subject.extension</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension:unidentifiedPatient</t>
+  </si>
+  <si>
+    <t>unidentifiedPatient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://www.saude.gov.br/fhir/r4/StructureDefinition/BRIndividuoNaoIdentificado-1.0}
+</t>
+  </si>
+  <si>
+    <t>Dados do Indivíduo Não Identificado</t>
+  </si>
+  <si>
+    <t>Informações demográficas básicas e justificativa dos indivíduos que não podem ser identificados por razões clínicas ou sociais, conforme legislação brasileira, com finalidade estatística.</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension:unidentifiedPatient.id</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension.id</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension:unidentifiedPatient.extension</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension.extension</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension:unidentifiedPatient.extension:gender</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension:unidentifiedPatient.extension:gender.id</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension.extension.id</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension:unidentifiedPatient.extension:gender.extension</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension:unidentifiedPatient.extension:gender.url</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension:unidentifiedPatient.extension:gender.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension:unidentifiedPatient.extension:birthYear</t>
+  </si>
+  <si>
+    <t>birthYear</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension:unidentifiedPatient.extension:birthYear.id</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension:unidentifiedPatient.extension:birthYear.extension</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension:unidentifiedPatient.extension:birthYear.url</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension:unidentifiedPatient.extension:birthYear.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension:unidentifiedPatient.extension:reason</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension:unidentifiedPatient.extension:reason.id</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension:unidentifiedPatient.extension:reason.extension</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension:unidentifiedPatient.extension:reason.url</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension:unidentifiedPatient.extension:reason.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension:unidentifiedPatient.url</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension.url</t>
+  </si>
+  <si>
+    <t>http://www.saude.gov.br/fhir/r4/StructureDefinition/BRIndividuoNaoIdentificado-1.0</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension:unidentifiedPatient.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
     <t>Observation.subject.reference</t>
@@ -2254,6 +2398,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -2430,7 +2589,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP98"/>
+  <dimension ref="A1:AP118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2439,8 +2598,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="73.60546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.80859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="18.9921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
@@ -2449,7 +2608,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2610,7 +2769,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2730,7 +2889,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>92</v>
       </c>
@@ -2850,7 +3009,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>100</v>
       </c>
@@ -2968,7 +3127,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>106</v>
       </c>
@@ -3088,7 +3247,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>112</v>
       </c>
@@ -3208,7 +3367,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>121</v>
       </c>
@@ -3328,7 +3487,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>129</v>
       </c>
@@ -3448,7 +3607,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>137</v>
       </c>
@@ -3564,7 +3723,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>145</v>
       </c>
@@ -3684,7 +3843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>151</v>
       </c>
@@ -3804,7 +3963,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>156</v>
       </c>
@@ -3926,7 +4085,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>163</v>
       </c>
@@ -4046,7 +4205,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>172</v>
       </c>
@@ -4166,7 +4325,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>181</v>
       </c>
@@ -4286,7 +4445,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>190</v>
       </c>
@@ -4408,7 +4567,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>203</v>
       </c>
@@ -4530,7 +4689,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>213</v>
       </c>
@@ -4652,7 +4811,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>227</v>
       </c>
@@ -4770,7 +4929,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>233</v>
       </c>
@@ -4890,7 +5049,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>238</v>
       </c>
@@ -5012,7 +5171,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>247</v>
       </c>
@@ -5134,7 +5293,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>255</v>
       </c>
@@ -5256,7 +5415,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>265</v>
       </c>
@@ -5374,7 +5533,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>266</v>
       </c>
@@ -5383,7 +5542,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5405,14 +5564,12 @@
         <v>138</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5485,7 +5642,7 @@
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5494,14 +5651,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>82</v>
       </c>
@@ -5510,29 +5669,27 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5581,42 +5738,42 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP26" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>273</v>
@@ -5630,7 +5787,7 @@
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -5639,20 +5796,18 @@
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5677,13 +5832,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>278</v>
+        <v>82</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>279</v>
+        <v>82</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5701,7 +5856,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5713,7 +5868,7 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -5725,7 +5880,7 @@
         <v>82</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5734,12 +5889,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5747,10 +5902,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5759,20 +5914,18 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>282</v>
+        <v>139</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5809,31 +5962,31 @@
         <v>82</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>82</v>
@@ -5845,7 +5998,7 @@
         <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>286</v>
+        <v>82</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5854,26 +6007,28 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>82</v>
@@ -5882,13 +6037,13 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5939,19 +6094,19 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -5963,7 +6118,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5972,23 +6127,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -6000,17 +6155,15 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -6047,31 +6200,31 @@
         <v>82</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>236</v>
+        <v>82</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
@@ -6092,48 +6245,46 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>290</v>
+        <v>234</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>291</v>
+        <v>235</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>82</v>
       </c>
@@ -6157,43 +6308,43 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>296</v>
+        <v>237</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
@@ -6202,10 +6353,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>297</v>
+        <v>232</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6214,12 +6365,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6227,7 +6378,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>93</v>
@@ -6239,29 +6390,27 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>82</v>
@@ -6279,13 +6428,13 @@
         <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>82</v>
@@ -6303,10 +6452,10 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>93</v>
@@ -6315,7 +6464,7 @@
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6324,10 +6473,10 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>306</v>
+        <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>297</v>
+        <v>136</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -6336,12 +6485,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6349,7 +6498,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>93</v>
@@ -6361,23 +6510,19 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -6389,7 +6534,7 @@
         <v>82</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>82</v>
@@ -6425,7 +6570,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6446,10 +6591,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>314</v>
+        <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6458,14 +6603,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>82</v>
       </c>
@@ -6477,26 +6624,24 @@
         <v>93</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>317</v>
+        <v>139</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6509,7 +6654,7 @@
         <v>82</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>82</v>
@@ -6545,19 +6690,19 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>321</v>
+        <v>237</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -6566,10 +6711,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>322</v>
+        <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>323</v>
+        <v>82</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6578,12 +6723,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6594,7 +6739,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6603,16 +6748,16 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>325</v>
+        <v>228</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>326</v>
+        <v>229</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6663,7 +6808,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>328</v>
+        <v>231</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6675,7 +6820,7 @@
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6684,10 +6829,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>330</v>
+        <v>232</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6696,23 +6841,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
@@ -6721,19 +6866,19 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>332</v>
+        <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>333</v>
+        <v>234</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>334</v>
+        <v>235</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>335</v>
+        <v>160</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6771,31 +6916,31 @@
         <v>82</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>336</v>
+        <v>237</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
@@ -6804,10 +6949,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>337</v>
+        <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>338</v>
+        <v>232</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6816,12 +6961,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6829,10 +6974,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6841,19 +6986,19 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6861,7 +7006,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>82</v>
@@ -6903,10 +7048,10 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>93</v>
@@ -6915,7 +7060,7 @@
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>82</v>
@@ -6936,12 +7081,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6949,10 +7094,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6961,20 +7106,18 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -7023,13 +7166,13 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>82</v>
@@ -7044,60 +7187,58 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>349</v>
+        <v>136</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>264</v>
+        <v>82</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="D39" t="s" s="2">
-        <v>351</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>352</v>
+        <v>138</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
+        <v>139</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
       </c>
@@ -7145,49 +7286,49 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>350</v>
+        <v>237</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>357</v>
+        <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>358</v>
+        <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>360</v>
+        <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>361</v>
+        <v>280</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>362</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7203,23 +7344,19 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>363</v>
+        <v>228</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>364</v>
+        <v>229</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
       </c>
@@ -7267,7 +7404,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>361</v>
+        <v>231</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7279,44 +7416,44 @@
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>370</v>
+        <v>232</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>372</v>
+        <v>304</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -7328,15 +7465,17 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7373,31 +7512,31 @@
         <v>82</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>82</v>
@@ -7418,23 +7557,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>305</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>373</v>
+        <v>284</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -7446,16 +7585,16 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>160</v>
+        <v>287</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7463,7 +7602,7 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>82</v>
@@ -7493,31 +7632,31 @@
         <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>236</v>
+        <v>82</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7529,7 +7668,7 @@
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>232</v>
+        <v>136</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7538,48 +7677,44 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>374</v>
+        <v>290</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7627,19 +7762,19 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -7660,12 +7795,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>379</v>
+        <v>307</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>379</v>
+        <v>308</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7673,10 +7808,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -7685,27 +7820,27 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>380</v>
+        <v>107</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>381</v>
+        <v>285</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>82</v>
+        <v>309</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>82</v>
@@ -7747,19 +7882,19 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>384</v>
+        <v>288</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7771,7 +7906,7 @@
         <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>385</v>
+        <v>136</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7780,12 +7915,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>386</v>
+        <v>311</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7796,7 +7931,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7805,21 +7940,19 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>387</v>
+        <v>312</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>388</v>
+        <v>291</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>389</v>
+        <v>292</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>390</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7867,7 +8000,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>391</v>
+        <v>293</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7879,7 +8012,7 @@
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>392</v>
+        <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7891,7 +8024,7 @@
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>393</v>
+        <v>136</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7900,12 +8033,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>394</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>394</v>
+        <v>313</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7916,7 +8049,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7925,18 +8058,20 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>228</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>229</v>
+        <v>314</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7985,7 +8120,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>231</v>
+        <v>317</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7994,10 +8129,10 @@
         <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -8009,7 +8144,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>232</v>
+        <v>136</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -8018,23 +8153,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>395</v>
+        <v>319</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>395</v>
+        <v>319</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -8043,19 +8178,19 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>234</v>
+        <v>320</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>160</v>
+        <v>322</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8081,43 +8216,43 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>82</v>
+        <v>323</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>82</v>
+        <v>325</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>236</v>
+        <v>82</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>237</v>
+        <v>326</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -8129,7 +8264,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>232</v>
+        <v>136</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8138,12 +8273,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>396</v>
+        <v>327</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8166,15 +8301,17 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>397</v>
+        <v>164</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>398</v>
+        <v>328</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -8223,7 +8360,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>400</v>
+        <v>331</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8247,7 +8384,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>401</v>
+        <v>332</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8256,12 +8393,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>333</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>402</v>
+        <v>333</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8281,23 +8418,19 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>403</v>
+        <v>228</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>404</v>
+        <v>229</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
@@ -8345,7 +8478,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>408</v>
+        <v>231</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8357,7 +8490,7 @@
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -8369,7 +8502,7 @@
         <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>409</v>
+        <v>232</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8378,23 +8511,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>334</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>410</v>
+        <v>334</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8403,18 +8536,20 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>403</v>
+        <v>138</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>411</v>
+        <v>234</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8451,31 +8586,31 @@
         <v>82</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>413</v>
+        <v>237</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8487,7 +8622,7 @@
         <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>409</v>
+        <v>232</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8496,12 +8631,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>414</v>
+        <v>335</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>414</v>
+        <v>335</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8512,31 +8647,31 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>415</v>
+        <v>113</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>416</v>
+        <v>336</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>417</v>
+        <v>337</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>418</v>
+        <v>338</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>419</v>
+        <v>339</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8561,13 +8696,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>82</v>
+        <v>340</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8585,7 +8720,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>420</v>
+        <v>342</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8606,10 +8741,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>421</v>
+        <v>343</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8618,12 +8753,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>422</v>
+        <v>344</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>422</v>
+        <v>344</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8646,19 +8781,19 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>415</v>
+        <v>204</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>423</v>
+        <v>345</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>424</v>
+        <v>346</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>418</v>
+        <v>347</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>419</v>
+        <v>348</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8683,13 +8818,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>82</v>
+        <v>323</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8707,7 +8842,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>425</v>
+        <v>351</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8728,10 +8863,10 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>82</v>
+        <v>352</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>421</v>
+        <v>343</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8740,12 +8875,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>426</v>
+        <v>353</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>426</v>
+        <v>353</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8768,16 +8903,20 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>427</v>
+        <v>354</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8789,7 +8928,7 @@
         <v>82</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>82</v>
+        <v>358</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>82</v>
@@ -8801,13 +8940,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>430</v>
+        <v>82</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8825,7 +8964,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>431</v>
+        <v>359</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8846,10 +8985,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>82</v>
+        <v>360</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>432</v>
+        <v>361</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8858,12 +8997,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>433</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>433</v>
+        <v>362</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8871,7 +9010,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>93</v>
@@ -8886,22 +9025,22 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>403</v>
+        <v>228</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>434</v>
+        <v>363</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q54" t="s" s="2">
-        <v>436</v>
-      </c>
+      <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8909,7 +9048,7 @@
         <v>82</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>82</v>
+        <v>366</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>82</v>
@@ -8945,7 +9084,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>437</v>
+        <v>367</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8966,10 +9105,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>82</v>
+        <v>368</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>421</v>
+        <v>369</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8978,12 +9117,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>438</v>
+        <v>370</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>438</v>
+        <v>370</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8994,7 +9133,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -9006,13 +9145,13 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>439</v>
+        <v>372</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>440</v>
+        <v>373</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -9063,7 +9202,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>441</v>
+        <v>374</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9084,10 +9223,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>421</v>
+        <v>376</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9096,12 +9235,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>442</v>
+        <v>377</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>442</v>
+        <v>377</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9112,7 +9251,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -9124,15 +9263,17 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>434</v>
+        <v>379</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -9181,7 +9322,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>444</v>
+        <v>382</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9202,10 +9343,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -9214,12 +9355,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>445</v>
+        <v>385</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>445</v>
+        <v>385</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9230,7 +9371,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>82</v>
@@ -9242,15 +9383,17 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>415</v>
+        <v>228</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>446</v>
+        <v>386</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9299,7 +9442,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9323,7 +9466,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>421</v>
+        <v>136</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9332,12 +9475,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>449</v>
+        <v>390</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>449</v>
+        <v>390</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9348,7 +9491,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -9360,15 +9503,17 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>113</v>
+        <v>391</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9393,13 +9538,13 @@
         <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>430</v>
+        <v>82</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -9417,13 +9562,13 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>451</v>
+        <v>390</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>82</v>
@@ -9438,35 +9583,35 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>452</v>
+        <v>396</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>452</v>
+        <v>396</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>82</v>
+        <v>397</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9478,18 +9623,20 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>113</v>
+        <v>398</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>453</v>
+        <v>399</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>454</v>
+        <v>400</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9513,11 +9660,13 @@
         <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="Y59" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z59" t="s" s="2">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -9535,13 +9684,13 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>457</v>
+        <v>396</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
@@ -9550,41 +9699,41 @@
         <v>105</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>82</v>
+        <v>404</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>232</v>
+        <v>405</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>82</v>
+        <v>406</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>458</v>
+        <v>407</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>458</v>
+        <v>407</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>82</v>
+        <v>408</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9596,18 +9745,20 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>459</v>
+        <v>409</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>461</v>
+        <v>411</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9655,13 +9806,13 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>463</v>
+        <v>407</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>82</v>
@@ -9670,30 +9821,30 @@
         <v>105</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>232</v>
+        <v>416</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>82</v>
+        <v>417</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>464</v>
+        <v>418</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>464</v>
+        <v>418</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9704,7 +9855,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9713,23 +9864,19 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>113</v>
+        <v>228</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>465</v>
+        <v>229</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9753,13 +9900,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>469</v>
+        <v>82</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>470</v>
+        <v>82</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9777,19 +9924,19 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>471</v>
+        <v>231</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
@@ -9801,7 +9948,7 @@
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>472</v>
+        <v>232</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9810,23 +9957,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>473</v>
+        <v>419</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>473</v>
+        <v>419</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9835,18 +9982,20 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>474</v>
+        <v>138</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>475</v>
+        <v>234</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9883,31 +10032,31 @@
         <v>82</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>477</v>
+        <v>237</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
@@ -9919,7 +10068,7 @@
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>478</v>
+        <v>232</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9928,46 +10077,48 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>479</v>
+        <v>420</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>479</v>
+        <v>420</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>82</v>
+        <v>421</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>480</v>
+        <v>422</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>481</v>
+        <v>423</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
       </c>
@@ -9991,13 +10142,13 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>483</v>
+        <v>82</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>484</v>
+        <v>82</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -10015,19 +10166,19 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>485</v>
+        <v>424</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
@@ -10039,7 +10190,7 @@
         <v>82</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>486</v>
+        <v>136</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10048,12 +10199,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>487</v>
+        <v>425</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>487</v>
+        <v>425</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10064,7 +10215,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -10076,18 +10227,18 @@
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>488</v>
+        <v>426</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
@@ -10135,13 +10286,13 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>487</v>
+        <v>430</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
@@ -10156,24 +10307,24 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>493</v>
+        <v>431</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>494</v>
+        <v>82</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>495</v>
+        <v>432</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>495</v>
+        <v>432</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10184,7 +10335,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -10196,17 +10347,17 @@
         <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>496</v>
+        <v>433</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>497</v>
+        <v>434</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>498</v>
+        <v>435</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>499</v>
+        <v>436</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10255,45 +10406,45 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>495</v>
+        <v>437</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>105</v>
+        <v>438</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>500</v>
+        <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>501</v>
+        <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>502</v>
+        <v>439</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>503</v>
+        <v>82</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>504</v>
+        <v>440</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>504</v>
+        <v>440</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10313,23 +10464,19 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>505</v>
+        <v>228</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>506</v>
+        <v>229</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>82</v>
       </c>
@@ -10377,7 +10524,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>504</v>
+        <v>231</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10386,47 +10533,47 @@
         <v>93</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>510</v>
+        <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>511</v>
+        <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>512</v>
+        <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>513</v>
+        <v>232</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>514</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10438,20 +10585,18 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>516</v>
+        <v>234</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>517</v>
+        <v>235</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>82</v>
       </c>
@@ -10475,43 +10620,43 @@
         <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>520</v>
+        <v>82</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>521</v>
+        <v>82</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>515</v>
+        <v>237</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>522</v>
+        <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
@@ -10520,10 +10665,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>523</v>
+        <v>232</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10532,23 +10677,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>524</v>
+        <v>442</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>524</v>
+        <v>442</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>525</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10557,23 +10702,19 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>204</v>
+        <v>443</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>526</v>
+        <v>444</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10597,13 +10738,13 @@
         <v>82</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>530</v>
+        <v>82</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>531</v>
+        <v>82</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10621,13 +10762,13 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>524</v>
+        <v>446</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
@@ -10639,27 +10780,27 @@
         <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>532</v>
+        <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>533</v>
+        <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>534</v>
+        <v>447</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>535</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>536</v>
+        <v>448</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>536</v>
+        <v>448</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10679,22 +10820,22 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>537</v>
+        <v>449</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>538</v>
+        <v>450</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>539</v>
+        <v>451</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>540</v>
+        <v>452</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>541</v>
+        <v>453</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10743,13 +10884,13 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>536</v>
+        <v>454</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
@@ -10764,10 +10905,10 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>542</v>
+        <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>543</v>
+        <v>455</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10776,12 +10917,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>544</v>
+        <v>456</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>544</v>
+        <v>456</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10801,20 +10942,18 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>204</v>
+        <v>449</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>545</v>
+        <v>457</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>547</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10839,13 +10978,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>548</v>
+        <v>82</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>549</v>
+        <v>82</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10863,7 +11002,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>544</v>
+        <v>459</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10881,27 +11020,27 @@
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>550</v>
+        <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>551</v>
+        <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>552</v>
+        <v>455</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>553</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>554</v>
+        <v>460</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>554</v>
+        <v>460</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10921,22 +11060,22 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>204</v>
+        <v>461</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>555</v>
+        <v>462</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>556</v>
+        <v>463</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>557</v>
+        <v>464</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>558</v>
+        <v>465</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10961,13 +11100,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>559</v>
+        <v>82</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>560</v>
+        <v>82</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10985,7 +11124,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>554</v>
+        <v>466</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11006,10 +11145,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>561</v>
+        <v>82</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>562</v>
+        <v>467</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -11018,12 +11157,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>563</v>
+        <v>468</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>563</v>
+        <v>468</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11043,19 +11182,23 @@
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>228</v>
+        <v>461</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>229</v>
+        <v>469</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
@@ -11103,7 +11246,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>231</v>
+        <v>471</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11115,7 +11258,7 @@
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -11127,7 +11270,7 @@
         <v>82</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>232</v>
+        <v>467</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11136,23 +11279,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>564</v>
+        <v>472</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>564</v>
+        <v>472</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -11161,20 +11304,18 @@
         <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>234</v>
+        <v>473</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11199,43 +11340,43 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>82</v>
+        <v>475</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>82</v>
+        <v>476</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>236</v>
+        <v>82</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>237</v>
+        <v>477</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -11247,7 +11388,7 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>232</v>
+        <v>478</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11256,12 +11397,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>565</v>
+        <v>479</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>565</v>
+        <v>479</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11284,24 +11425,22 @@
         <v>94</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>239</v>
+        <v>449</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="R74" t="s" s="2">
         <v>82</v>
       </c>
@@ -11345,13 +11484,13 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>244</v>
+        <v>483</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>82</v>
@@ -11366,10 +11505,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>246</v>
+        <v>467</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11378,12 +11517,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>566</v>
+        <v>484</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>566</v>
+        <v>484</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11406,20 +11545,16 @@
         <v>94</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>228</v>
+        <v>449</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>248</v>
+        <v>485</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11467,7 +11602,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>252</v>
+        <v>487</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11488,10 +11623,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>254</v>
+        <v>467</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11500,12 +11635,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>567</v>
+        <v>488</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>567</v>
+        <v>488</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11516,7 +11651,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
@@ -11525,20 +11660,18 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>568</v>
+        <v>461</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>569</v>
+        <v>480</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>571</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11587,7 +11720,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>567</v>
+        <v>490</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11605,27 +11738,27 @@
         <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>572</v>
+        <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>573</v>
+        <v>82</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>574</v>
+        <v>467</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>575</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>576</v>
+        <v>491</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>576</v>
+        <v>491</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11636,7 +11769,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -11645,20 +11778,18 @@
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>577</v>
+        <v>461</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>578</v>
+        <v>492</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11707,7 +11838,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>576</v>
+        <v>494</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11725,27 +11856,27 @@
         <v>82</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>581</v>
+        <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>582</v>
+        <v>82</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>583</v>
+        <v>467</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>584</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>585</v>
+        <v>495</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>585</v>
+        <v>495</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11756,7 +11887,7 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11765,23 +11896,19 @@
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>586</v>
+        <v>113</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>587</v>
+        <v>473</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>590</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
@@ -11805,13 +11932,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>82</v>
+        <v>475</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>82</v>
+        <v>476</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11829,19 +11956,19 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>585</v>
+        <v>497</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>591</v>
+        <v>105</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>82</v>
@@ -11850,10 +11977,10 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>592</v>
+        <v>82</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>593</v>
+        <v>478</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11862,12 +11989,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>594</v>
+        <v>498</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>594</v>
+        <v>498</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11878,7 +12005,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
@@ -11887,18 +12014,20 @@
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>229</v>
+        <v>499</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11923,13 +12052,11 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>82</v>
+        <v>502</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11947,19 +12074,19 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>231</v>
+        <v>503</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>82</v>
@@ -11980,16 +12107,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>595</v>
+        <v>504</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>595</v>
+        <v>504</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -12005,19 +12132,19 @@
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>138</v>
+        <v>505</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>234</v>
+        <v>506</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>235</v>
+        <v>507</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>160</v>
+        <v>508</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12067,7 +12194,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>237</v>
+        <v>509</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12079,7 +12206,7 @@
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -12100,16 +12227,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>596</v>
+        <v>510</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>596</v>
+        <v>510</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12122,25 +12249,25 @@
         <v>82</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>376</v>
+        <v>511</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>377</v>
+        <v>512</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>160</v>
+        <v>513</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>161</v>
+        <v>514</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12165,13 +12292,13 @@
         <v>82</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>82</v>
+        <v>515</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>82</v>
+        <v>516</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -12189,7 +12316,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>378</v>
+        <v>517</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12201,7 +12328,7 @@
         <v>82</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -12213,7 +12340,7 @@
         <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>136</v>
+        <v>518</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12222,12 +12349,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>597</v>
+        <v>519</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>597</v>
+        <v>519</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12247,16 +12374,16 @@
         <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>598</v>
+        <v>520</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>599</v>
+        <v>521</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>600</v>
+        <v>522</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12307,7 +12434,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>597</v>
+        <v>523</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12316,7 +12443,7 @@
         <v>93</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>601</v>
+        <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>105</v>
@@ -12328,10 +12455,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>602</v>
+        <v>82</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>603</v>
+        <v>524</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12340,12 +12467,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>604</v>
+        <v>525</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>604</v>
+        <v>525</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12365,18 +12492,20 @@
         <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>598</v>
+        <v>204</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>605</v>
+        <v>526</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12401,13 +12530,13 @@
         <v>82</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>82</v>
+        <v>529</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>82</v>
+        <v>530</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12425,7 +12554,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>604</v>
+        <v>531</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12434,7 +12563,7 @@
         <v>93</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>601</v>
+        <v>82</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>105</v>
@@ -12446,10 +12575,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>602</v>
+        <v>82</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>607</v>
+        <v>532</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12458,12 +12587,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>608</v>
+        <v>533</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>608</v>
+        <v>533</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12474,7 +12603,7 @@
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>82</v>
@@ -12483,23 +12612,21 @@
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>204</v>
+        <v>534</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>609</v>
+        <v>535</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>610</v>
+        <v>536</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>612</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12523,13 +12650,13 @@
         <v>82</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>613</v>
+        <v>82</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>614</v>
+        <v>82</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>82</v>
@@ -12547,7 +12674,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>608</v>
+        <v>533</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12565,27 +12692,27 @@
         <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>615</v>
+        <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>616</v>
+        <v>538</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>82</v>
+        <v>540</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>617</v>
+        <v>541</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>617</v>
+        <v>541</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12596,7 +12723,7 @@
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>82</v>
@@ -12605,22 +12732,20 @@
         <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>204</v>
+        <v>542</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>618</v>
+        <v>543</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>620</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>621</v>
+        <v>545</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12645,13 +12770,13 @@
         <v>82</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>622</v>
+        <v>82</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>623</v>
+        <v>82</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>624</v>
+        <v>82</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>82</v>
@@ -12669,7 +12794,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>617</v>
+        <v>541</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12684,30 +12809,30 @@
         <v>105</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>82</v>
+        <v>546</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>615</v>
+        <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>616</v>
+        <v>547</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>82</v>
+        <v>549</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12727,20 +12852,22 @@
         <v>82</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>626</v>
+        <v>551</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>627</v>
+        <v>552</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="O86" t="s" s="2">
-        <v>629</v>
+        <v>555</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12789,7 +12916,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12798,7 +12925,7 @@
         <v>93</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>82</v>
+        <v>556</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>105</v>
@@ -12807,27 +12934,27 @@
         <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>82</v>
+        <v>557</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>82</v>
+        <v>558</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>630</v>
+        <v>559</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>82</v>
+        <v>560</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>631</v>
+        <v>561</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>631</v>
+        <v>561</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12838,7 +12965,7 @@
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>82</v>
@@ -12850,16 +12977,20 @@
         <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>632</v>
+        <v>562</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
       </c>
@@ -12883,13 +13014,13 @@
         <v>82</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>82</v>
+        <v>323</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>82</v>
+        <v>566</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>82</v>
+        <v>567</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -12907,7 +13038,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>631</v>
+        <v>561</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12916,7 +13047,7 @@
         <v>93</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>82</v>
+        <v>568</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>105</v>
@@ -12928,10 +13059,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>602</v>
+        <v>136</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>634</v>
+        <v>569</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12940,16 +13071,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>635</v>
+        <v>570</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>635</v>
+        <v>570</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>82</v>
+        <v>571</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12965,21 +13096,23 @@
         <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>636</v>
+        <v>204</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>637</v>
+        <v>572</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>638</v>
+        <v>573</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>574</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>575</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
       </c>
@@ -13003,13 +13136,13 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>82</v>
+        <v>323</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>82</v>
+        <v>576</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>82</v>
+        <v>577</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -13027,7 +13160,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>635</v>
+        <v>570</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13045,27 +13178,27 @@
         <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>82</v>
+        <v>578</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>640</v>
+        <v>579</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>82</v>
+        <v>581</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>642</v>
+        <v>582</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>642</v>
+        <v>582</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13076,7 +13209,7 @@
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>82</v>
@@ -13085,21 +13218,23 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>643</v>
+        <v>583</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>644</v>
+        <v>584</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>645</v>
+        <v>585</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>587</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -13147,7 +13282,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>642</v>
+        <v>582</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13168,10 +13303,10 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>640</v>
+        <v>588</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>647</v>
+        <v>589</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -13180,12 +13315,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>648</v>
+        <v>590</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>648</v>
+        <v>590</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13205,23 +13340,21 @@
         <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>586</v>
+        <v>204</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>649</v>
+        <v>591</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>650</v>
+        <v>592</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>652</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>82</v>
       </c>
@@ -13245,13 +13378,13 @@
         <v>82</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>82</v>
+        <v>594</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>82</v>
+        <v>595</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
@@ -13269,13 +13402,13 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>648</v>
+        <v>590</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>82</v>
@@ -13287,27 +13420,27 @@
         <v>82</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>82</v>
+        <v>596</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>654</v>
+        <v>598</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>82</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>655</v>
+        <v>600</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>655</v>
+        <v>600</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13330,16 +13463,20 @@
         <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>229</v>
+        <v>601</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+        <v>602</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>604</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
       </c>
@@ -13363,13 +13500,13 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>82</v>
+        <v>605</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>82</v>
+        <v>606</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13387,7 +13524,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>231</v>
+        <v>600</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13399,7 +13536,7 @@
         <v>82</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>82</v>
@@ -13408,10 +13545,10 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>82</v>
+        <v>607</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>232</v>
+        <v>608</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13420,23 +13557,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>656</v>
+        <v>609</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>656</v>
+        <v>609</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>82</v>
@@ -13448,17 +13585,15 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13507,19 +13642,19 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>82</v>
@@ -13540,16 +13675,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>657</v>
+        <v>610</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>657</v>
+        <v>610</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>375</v>
+        <v>157</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13562,26 +13697,24 @@
         <v>82</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>376</v>
+        <v>234</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>377</v>
+        <v>235</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="O93" t="s" s="2">
-        <v>161</v>
-      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
@@ -13617,19 +13750,19 @@
         <v>82</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>378</v>
+        <v>237</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13653,7 +13786,7 @@
         <v>82</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13662,12 +13795,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>658</v>
+        <v>611</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>658</v>
+        <v>611</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13675,7 +13808,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>93</v>
@@ -13690,19 +13823,19 @@
         <v>94</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>659</v>
+        <v>240</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>660</v>
+        <v>241</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>661</v>
+        <v>242</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13727,13 +13860,13 @@
         <v>82</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>622</v>
+        <v>82</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>662</v>
+        <v>82</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>663</v>
+        <v>82</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>82</v>
@@ -13751,13 +13884,13 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>658</v>
+        <v>244</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>82</v>
@@ -13769,27 +13902,27 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>664</v>
+        <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="AP94" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>665</v>
+        <v>612</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>665</v>
+        <v>612</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13812,19 +13945,19 @@
         <v>94</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>666</v>
+        <v>228</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>667</v>
+        <v>248</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>507</v>
+        <v>249</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>668</v>
+        <v>250</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>509</v>
+        <v>251</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13873,7 +14006,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>665</v>
+        <v>252</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13891,27 +14024,27 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>669</v>
+        <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>512</v>
+        <v>253</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>513</v>
+        <v>254</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>514</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>670</v>
+        <v>613</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>670</v>
+        <v>613</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13922,7 +14055,7 @@
         <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>82</v>
@@ -13934,20 +14067,18 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>204</v>
+        <v>614</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>671</v>
+        <v>615</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>672</v>
+        <v>616</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
@@ -13971,13 +14102,13 @@
         <v>82</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>520</v>
+        <v>82</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>521</v>
+        <v>82</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>82</v>
@@ -13995,7 +14126,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>670</v>
+        <v>613</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14004,7 +14135,7 @@
         <v>93</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>522</v>
+        <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>105</v>
@@ -14013,38 +14144,38 @@
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>82</v>
+        <v>618</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>136</v>
+        <v>619</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>523</v>
+        <v>620</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>82</v>
+        <v>621</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>674</v>
+        <v>622</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>674</v>
+        <v>622</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>525</v>
+        <v>82</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
@@ -14056,20 +14187,18 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>204</v>
+        <v>623</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>526</v>
+        <v>624</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>527</v>
+        <v>625</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
@@ -14093,13 +14222,13 @@
         <v>82</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>530</v>
+        <v>82</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>531</v>
+        <v>82</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>82</v>
@@ -14117,13 +14246,13 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>674</v>
+        <v>622</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>82</v>
@@ -14135,27 +14264,27 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>532</v>
+        <v>627</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>533</v>
+        <v>628</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>534</v>
+        <v>629</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>535</v>
+        <v>630</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>675</v>
+        <v>631</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>675</v>
+        <v>631</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14166,7 +14295,7 @@
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
@@ -14178,19 +14307,19 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>83</v>
+        <v>632</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>676</v>
+        <v>633</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>677</v>
+        <v>634</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>589</v>
+        <v>635</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>590</v>
+        <v>636</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14239,7 +14368,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>675</v>
+        <v>631</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14251,28 +14380,2456 @@
         <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP98" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP99" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP100" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP101" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AK98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP98" t="s" s="2">
+      <c r="AK102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP102" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP103" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="P104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP104" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="P105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP105" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP106" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP107" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP108" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP109" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="P110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP110" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP111" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O112" s="2"/>
+      <c r="P112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP112" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="P113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP113" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="P114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AO114" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AP114" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="P115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP115" t="s" s="2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="P116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP116" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="P117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AO117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP117" t="s" s="2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="P118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AO118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP118" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AP118">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI117">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T16:56:19-03:00</t>
+    <t>2024-02-27T15:34:29-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T15:34:29-03:00</t>
+    <t>2024-03-22T16:03:25-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T16:03:25-03:00</t>
+    <t>2024-10-15T16:51:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -2151,7 +2151,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-15T16:51:50-03:00</t>
+    <t>2025-01-22T17:38:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2598,15 +2598,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="73.60546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.9921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="70.48046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.4765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.5859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2617,28 +2617,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.57421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="36.22265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="91.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.0078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="38.58203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="230.59375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="98.85546875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="32.4453125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="37.3671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5905,7 +5905,7 @@
         <v>276</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>

--- a/docs/StructureDefinition-BRMedidaObservada.xlsx
+++ b/docs/StructureDefinition-BRMedidaObservada.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T17:38:12-03:00</t>
+    <t>2025-08-05T10:09:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2598,15 +2598,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="70.48046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.4765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="37.5859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="67.2109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.8671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.6171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="35.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.65234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.1796875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2617,28 +2617,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="36.22265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="91.51171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.0078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.58203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.54296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.7421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.12890625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.40625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.85546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="87.265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.12890625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.2734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.1171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.56640625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.3671875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.85546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.23828125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.359375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="230.59375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.13671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="219.89453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="98.85546875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.4453125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.3671875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="94.265625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="30.9375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="35.6328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5669,7 +5669,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>94</v>
